--- a/Macro_Data.xlsx
+++ b/Macro_Data.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nityantakumargogoi/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14A91869-CED1-B243-B043-200BB98F804B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E550D8AC-5F0A-C445-89E0-7B9A43E881FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{0588F713-CA66-DC46-8AEF-624570303E13}"/>
+    <workbookView xWindow="35180" yWindow="7280" windowWidth="28040" windowHeight="17440" xr2:uid="{0588F713-CA66-DC46-8AEF-624570303E13}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Live_Prices" sheetId="1" r:id="rId1"/>
+    <sheet name="Exposure" sheetId="2" r:id="rId2"/>
+    <sheet name="Rates_Funding" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,9 +36,104 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+  <si>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Timestamp</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Equity</t>
+  </si>
+  <si>
+    <t>Notional</t>
+  </si>
+  <si>
+    <t>SOFR (%)</t>
+  </si>
+  <si>
+    <t>Margin Debt</t>
+  </si>
+  <si>
+    <t>Daily Interest</t>
+  </si>
+  <si>
+    <t>NVDA</t>
+  </si>
+  <si>
+    <t>DELL</t>
+  </si>
+  <si>
+    <t>MSTR</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>AMZN</t>
+  </si>
+  <si>
+    <t>META</t>
+  </si>
+  <si>
+    <t>HHH</t>
+  </si>
+  <si>
+    <t>URBN</t>
+  </si>
+  <si>
+    <t>HON</t>
+  </si>
+  <si>
+    <t>FNMA</t>
+  </si>
+  <si>
+    <t>DHR</t>
+  </si>
+  <si>
+    <t>FMCC</t>
+  </si>
+  <si>
+    <t>GOOG</t>
+  </si>
+  <si>
+    <t>BMO</t>
+  </si>
+  <si>
+    <t>EA</t>
+  </si>
+  <si>
+    <t>UAL</t>
+  </si>
+  <si>
+    <t>VRTX</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>COIN</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>ORC</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -44,13 +141,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFC000"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFC000"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -65,8 +181,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,12 +500,192 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D596F6-9551-AF49-AC17-C15146B78ED7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BFBE54-4EDE-BC48-A418-492C66628B9D}">
+  <dimension ref="A8:C9"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B626A861-FBDB-F74B-89D7-2C8115DD90C9}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Macro_Data.xlsx
+++ b/Macro_Data.xlsx
@@ -1,163 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nityantakumargogoi/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E550D8AC-5F0A-C445-89E0-7B9A43E881FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="35180" yWindow="7280" windowWidth="28040" windowHeight="17440" xr2:uid="{0588F713-CA66-DC46-8AEF-624570303E13}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="35180" yWindow="7280" windowWidth="28040" windowHeight="17440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Live_Prices" sheetId="1" r:id="rId1"/>
-    <sheet name="Exposure" sheetId="2" r:id="rId2"/>
-    <sheet name="Rates_Funding" sheetId="3" r:id="rId3"/>
+    <sheet name="Live_Prices" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Exposure" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Rates_Funding" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="181029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
-  <si>
-    <t>Symbol</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Timestamp</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Equity</t>
-  </si>
-  <si>
-    <t>Notional</t>
-  </si>
-  <si>
-    <t>SOFR (%)</t>
-  </si>
-  <si>
-    <t>Margin Debt</t>
-  </si>
-  <si>
-    <t>Daily Interest</t>
-  </si>
-  <si>
-    <t>NVDA</t>
-  </si>
-  <si>
-    <t>DELL</t>
-  </si>
-  <si>
-    <t>MSTR</t>
-  </si>
-  <si>
-    <t>MU</t>
-  </si>
-  <si>
-    <t>AMZN</t>
-  </si>
-  <si>
-    <t>META</t>
-  </si>
-  <si>
-    <t>HHH</t>
-  </si>
-  <si>
-    <t>URBN</t>
-  </si>
-  <si>
-    <t>HON</t>
-  </si>
-  <si>
-    <t>FNMA</t>
-  </si>
-  <si>
-    <t>DHR</t>
-  </si>
-  <si>
-    <t>FMCC</t>
-  </si>
-  <si>
-    <t>GOOG</t>
-  </si>
-  <si>
-    <t>BMO</t>
-  </si>
-  <si>
-    <t>EA</t>
-  </si>
-  <si>
-    <t>UAL</t>
-  </si>
-  <si>
-    <t>VRTX</t>
-  </si>
-  <si>
-    <t>DAL</t>
-  </si>
-  <si>
-    <t>COIN</t>
-  </si>
-  <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>ORC</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFFC000"/>
       <name val="Courier New"/>
       <family val="1"/>
+      <b val="1"/>
+      <color rgb="FFFFC000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFFC000"/>
       <name val="Courier New"/>
       <family val="1"/>
+      <color rgb="FFFFC000"/>
+      <sz val="12"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -182,24 +67,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -499,132 +443,352 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D596F6-9551-AF49-AC17-C15146B78ED7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="3"/>
+    <col width="10.83203125" customWidth="1" style="3" min="1" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>29</v>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Symbol</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>186.5</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2026-01-02 07:19:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>DELL</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>125.88</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2026-01-02 07:19:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>MSTR</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>151.95</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2026-01-02 07:19:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>285.41</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2026-01-02 07:19:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>AMZN</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>230.82</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2026-01-02 07:19:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>META</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>660.09</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2026-01-02 07:19:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>HHH</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>79.77</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2026-01-02 07:19:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>URBN</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>75.26000000000001</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2026-01-02 07:19:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>HON</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>195.09</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2026-01-02 07:19:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>FNMA</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2026-01-02 07:19:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>DHR</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>228.92</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2026-01-02 07:19:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>FMCC</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>10.14</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2026-01-02 07:19:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>313.8</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2026-01-02 07:19:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>BMO</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>129.79</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2026-01-02 07:19:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>204.33</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2026-01-02 07:19:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>UAL</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>111.82</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2026-01-02 07:19:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>VRTX</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>453.36</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2026-01-02 07:19:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>69.40000000000001</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2026-01-02 07:19:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>COIN</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>226.14</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2026-01-02 07:19:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>570.88</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2026-01-02 07:19:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>ORC</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2026-01-02 07:19:39</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -633,28 +797,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BFBE54-4EDE-BC48-A418-492C66628B9D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A8:C9"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Notional</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -662,27 +836,39 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B626A861-FBDB-F74B-89D7-2C8115DD90C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>SOFR (%)</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Margin Debt</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Daily Interest</t>
+        </is>
       </c>
     </row>
   </sheetData>
